--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1227472.004769425</v>
+        <v>-1230027.187497956</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>103.645016151009</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>89.48046147214258</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1285294081568</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>217.4929725881595</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>276.4104614043483</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>319.2967725276102</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>215.0793173751883</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>39.8847756316533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>149.2419515106222</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>193.5324223672906</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>161.5232781970771</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>69.55800965594318</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>116.4933473455161</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>75.0078851161804</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>20.38427178198041</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>87.82057320600153</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>154.4892550148504</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>223.154644614304</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>212.3267021497101</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>60.78102717027875</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1221.525483338121</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>852.5629663977095</v>
+        <v>817.078520373555</v>
       </c>
       <c r="D2" t="n">
-        <v>494.2972677909589</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.125323402243</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686063</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080119</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8037095364738</v>
+        <v>622.8136871311511</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>622.8136871311511</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962311</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1515.918792614148</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1515.918792614148</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1261.234304408261</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="W4" t="n">
-        <v>1261.234304408261</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X4" t="n">
-        <v>1033.244753510244</v>
+        <v>843.6062662746813</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.4521743667135</v>
+        <v>622.8136871311511</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1495.089731832625</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.127214892214</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D5" t="n">
-        <v>767.8615162854633</v>
+        <v>853.0489585490532</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2998.063317403753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2645.294662133639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2271.828903872559</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.689571896747</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4641,16 +4641,16 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0752021691753</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4720,19 +4720,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W7" t="n">
-        <v>1446.505797040963</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.516246142945</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.7236669994151</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1795.666214589423</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.703697649011</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="D8" t="n">
-        <v>1068.437999042261</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>682.6497464440163</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>271.6638416544087</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653544</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>747.4506112757448</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="C10" t="n">
-        <v>578.5144283478379</v>
+        <v>284.6858258286605</v>
       </c>
       <c r="D10" t="n">
-        <v>428.3977889355021</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>428.3977889355021</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>281.5078414375918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4996,16 +4996,16 @@
         <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>929.0990761059845</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432834</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049275</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925917</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>625.3800815101986</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>478.4901340122882</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>311.2940347271681</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>169.5822035693662</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304621</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>155.2116399876474</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6601,19 +6601,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,25 +6856,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580117</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,49 +7804,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>261.6278756199985</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.48694361005552</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>2.055976688009679</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>62.63359754465157</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22841,7 +22841,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>62.63359754464872</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.257951202385129</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.99097492814126</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.086645835572559e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016455</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>164.3170701178265</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>131.6952193743938</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>63.368353722287</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>74.19629618688089</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>20.48480914828678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153448.6945369143</v>
+        <v>153448.6945369144</v>
       </c>
       <c r="C2" t="n">
-        <v>183612.6304874392</v>
+        <v>183612.630487439</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="F2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
@@ -26335,7 +26335,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302513</v>
@@ -26344,16 +26344,16 @@
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194635</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820.12292715301</v>
+        <v>12820.12292715303</v>
       </c>
       <c r="C4" t="n">
-        <v>89338.26297207296</v>
+        <v>89338.26297207287</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818172</v>
@@ -26430,34 +26430,34 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683041</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="I4" t="n">
-        <v>12996.8641468305</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683042</v>
-      </c>
       <c r="L4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992388</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296050.114679225</v>
+        <v>-1296397.73360903</v>
       </c>
       <c r="C6" t="n">
-        <v>-13659.57304602707</v>
+        <v>-13672.0371319385</v>
       </c>
       <c r="D6" t="n">
-        <v>-15383.44126011123</v>
+        <v>-15383.4412601114</v>
       </c>
       <c r="E6" t="n">
-        <v>-257923.8708478413</v>
+        <v>-257958.6087732773</v>
       </c>
       <c r="F6" t="n">
-        <v>67488.59095951384</v>
+        <v>67453.85303407804</v>
       </c>
       <c r="G6" t="n">
-        <v>67488.59095951403</v>
+        <v>67453.8530340781</v>
       </c>
       <c r="H6" t="n">
-        <v>67488.59095951357</v>
+        <v>67453.85303407807</v>
       </c>
       <c r="I6" t="n">
-        <v>67488.59095951376</v>
+        <v>67453.85303407804</v>
       </c>
       <c r="J6" t="n">
-        <v>-150042.6114377637</v>
+        <v>-150077.3493631991</v>
       </c>
       <c r="K6" t="n">
-        <v>67488.59095951372</v>
+        <v>67453.85303407806</v>
       </c>
       <c r="L6" t="n">
         <v>41154.84096199257</v>
       </c>
       <c r="M6" t="n">
-        <v>-24472.4689798874</v>
+        <v>-24472.46897988762</v>
       </c>
       <c r="N6" t="n">
-        <v>60582.55895562435</v>
+        <v>60582.55895562432</v>
       </c>
       <c r="O6" t="n">
-        <v>60582.55895562432</v>
+        <v>60582.55895562438</v>
       </c>
       <c r="P6" t="n">
-        <v>60582.55895562429</v>
+        <v>60582.55895562438</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>78.27258021633469</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>50.03934355029791</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>127.3620454669745</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>136.9698866949906</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>161.1506192533923</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>249.3984474563764</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>79.05746336226917</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>49.53246091351208</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
